--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/WISCONSIN_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/WISCONSIN_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1161"/>
+  <dimension ref="A1:D1155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -407,13 +407,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C6">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C22">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C45">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="D66">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="67">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C81">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C91">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C93">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C109">
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="D114">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="115">
@@ -1943,7 +1943,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C123">
@@ -2033,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="D125">
-        <v>0.009941440827999455</v>
+        <v>0.009941440827999456</v>
       </c>
     </row>
     <row r="126">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C137">
@@ -2246,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="D141">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="142">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C149">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C153">
@@ -2499,12 +2499,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C161">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C165">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C175">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C177">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C180">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C186">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C203">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C213">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C219">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="D222">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C226">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C236">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C242">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C245">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3725,7 +3725,7 @@
         <v>7</v>
       </c>
       <c r="D254">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C261">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C265">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -4003,13 +4003,13 @@
         <v>7</v>
       </c>
       <c r="D275">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C284">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C293">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C305">
@@ -4484,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="D312">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C317">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C323">
@@ -4742,14 +4742,14 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C332">
         <v>7</v>
       </c>
       <c r="D332">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="333">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C335">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C338">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C341">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C349">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C352">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C354">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C357">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5235,13 +5235,13 @@
         <v>7</v>
       </c>
       <c r="D369">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C372">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C385">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C392">
@@ -5560,13 +5560,13 @@
         <v>7</v>
       </c>
       <c r="D394">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C395">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C399">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C407">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C416">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C436">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C440">
@@ -6618,7 +6618,7 @@
         <v>7</v>
       </c>
       <c r="D475">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="476">
@@ -6923,7 +6923,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C499">
@@ -7273,7 +7273,7 @@
         <v>7</v>
       </c>
       <c r="D525">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="526">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C528">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C531">
@@ -7357,7 +7357,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C532">
@@ -7435,7 +7435,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C538">
@@ -7505,7 +7505,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C543">
@@ -7679,7 +7679,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C556">
@@ -7705,7 +7705,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C558">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C561">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C566">
@@ -7847,13 +7847,13 @@
         <v>7</v>
       </c>
       <c r="D568">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C574">
@@ -7938,7 +7938,7 @@
         <v>7</v>
       </c>
       <c r="D575">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="576">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C578">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C585">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C597">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C604">
@@ -8809,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="D642">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="643">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C655">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C666">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C678">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C695">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C717">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C735">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C745">
@@ -10167,20 +10167,20 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C747">
         <v>7</v>
       </c>
       <c r="D747">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C753">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C757">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C759">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C760">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C762">
@@ -10478,7 +10478,7 @@
         <v>69</v>
       </c>
       <c r="D770">
-        <v>0.009396704344273457</v>
+        <v>0.009396704344273456</v>
       </c>
     </row>
     <row r="771">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C773">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C775">
@@ -10764,13 +10764,13 @@
         <v>7</v>
       </c>
       <c r="D792">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C793">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C796">
@@ -10887,7 +10887,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C802">
@@ -11108,7 +11108,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C819">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C820">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C824">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C830">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C835">
@@ -11381,14 +11381,14 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C840">
         <v>7</v>
       </c>
       <c r="D840">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="841">
@@ -11524,7 +11524,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C851">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C862">
@@ -11698,7 +11698,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C864">
@@ -11737,7 +11737,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C867">
@@ -11776,7 +11776,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C870">
@@ -11877,7 +11877,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C877">
@@ -11916,7 +11916,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C880">
@@ -11981,7 +11981,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C885">
@@ -12033,7 +12033,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C889">
@@ -12072,7 +12072,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C892">
@@ -12124,7 +12124,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C896">
@@ -12137,7 +12137,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C897">
@@ -12150,7 +12150,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C898">
@@ -12163,7 +12163,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C899">
@@ -12292,7 +12292,7 @@
         <v>7</v>
       </c>
       <c r="D908">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="909">
@@ -12472,7 +12472,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C922">
@@ -12833,7 +12833,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C949">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C955">
@@ -12968,7 +12968,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C959">
@@ -13001,13 +13001,13 @@
         <v>7</v>
       </c>
       <c r="D961">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C962">
@@ -13033,7 +13033,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C964">
@@ -13059,7 +13059,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C966">
@@ -13246,7 +13246,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C980">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C984">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C992">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C994">
@@ -13623,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1009">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1021">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1022">
@@ -13831,7 +13831,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1025">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1026">
@@ -13890,7 +13890,7 @@
         <v>7</v>
       </c>
       <c r="D1029">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="1030">
@@ -13948,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1034">
@@ -13987,7 +13987,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1037">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1039">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1042">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1046">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1060">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1061">
@@ -14338,7 +14338,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1064">
@@ -14442,14 +14442,14 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1072">
         <v>7</v>
       </c>
       <c r="D1072">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="1073">
@@ -14494,7 +14494,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1076">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1102">
@@ -15180,7 +15180,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1128">
@@ -15232,7 +15232,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1132">
@@ -15271,7 +15271,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1135">
@@ -15284,7 +15284,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1136">
@@ -15297,7 +15297,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1137">
@@ -15317,7 +15317,7 @@
         <v>69</v>
       </c>
       <c r="D1138">
-        <v>0.009396704344273457</v>
+        <v>0.009396704344273456</v>
       </c>
     </row>
     <row r="1139">
@@ -15414,7 +15414,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1146">
@@ -15427,7 +15427,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1147">
@@ -15440,7 +15440,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1148">
@@ -15486,7 +15486,7 @@
         <v>7</v>
       </c>
       <c r="D1151">
-        <v>0.0009532888465204957</v>
+        <v>0.0009532888465204956</v>
       </c>
     </row>
     <row r="1152">
@@ -15539,41 +15539,6 @@
       </c>
       <c r="D1155">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
